--- a/config/X公司样例_零售业/data_extraction_config_X公司样例_零售业.xlsx
+++ b/config/X公司样例_零售业/data_extraction_config_X公司样例_零售业.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="13280" tabRatio="829"/>
+    <workbookView windowWidth="29100" windowHeight="7160" tabRatio="829" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="multi_sheet_df" sheetId="8" r:id="rId1"/>
@@ -15,6 +15,9 @@
     <sheet name="ASC_ORDERED_KEYWORDS" sheetId="13" r:id="rId6"/>
     <sheet name="PERCENTAGE_KEYWORDS" sheetId="14" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">multi_sheet_df!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">single_sheet_df!$A$1:$G$1</definedName>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>multi_sheet_df</t>
   </si>
@@ -60,6 +63,9 @@
     <t>type</t>
   </si>
   <si>
+    <t>switch</t>
+  </si>
+  <si>
     <t>X公司样例_零售业_标准表数据.xlsx</t>
   </si>
   <si>
@@ -69,6 +75,24 @@
     <t>standard</t>
   </si>
   <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>计划值</t>
+  </si>
+  <si>
+    <t>X公司样例_零售业_月报2024-12-31.xlsx</t>
+  </si>
+  <si>
+    <t>营收</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>X公司样例_零售业_月报2024-11-30.xlsx</t>
+  </si>
+  <si>
     <t>field</t>
   </si>
   <si>
@@ -78,12 +102,36 @@
     <t>dtype</t>
   </si>
   <si>
+    <t>营收_X公司样例_零售业_月报2024-12-31.xlsx</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>机构名称</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dimension</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>营收_X公司样例_零售业_月报2024-11-30.xlsx</t>
+  </si>
+  <si>
     <t>机构分组</t>
   </si>
   <si>
-    <t>机构名称</t>
-  </si>
-  <si>
     <t>华东区</t>
   </si>
   <si>
@@ -117,10 +165,10 @@
     <t>新机构名称</t>
   </si>
   <si>
-    <t>曾用名</t>
-  </si>
-  <si>
-    <t>现名</t>
+    <t>A门店</t>
+  </si>
+  <si>
+    <t>B门店</t>
   </si>
   <si>
     <t>关键词</t>
@@ -186,17 +234,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="MicrosoftYaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="14"/>
       <name val="微软雅黑 Light"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="MicrosoftYaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="MicrosoftYaHei"/>
       <charset val="134"/>
@@ -554,12 +602,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -686,7 +749,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,34 +761,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -810,20 +873,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -897,6 +963,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="multi_sheet_df"/>
+      <sheetName val="single_sheet_df"/>
+      <sheetName val="机构分组"/>
+      <sheetName val="过滤机构"/>
+      <sheetName val="机构名替换"/>
+      <sheetName val="ASC_ORDERED_KEYWORDS"/>
+      <sheetName val="PERCENTAGE_KEYWORDS"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>single_sheet_df</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>file_name</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>sheet_name</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>核心指标_X公司样例_零售业_标准表数据.xlsx</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>X公司样例_零售业_标准表数据.xlsx</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>核心指标</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>计划值_X公司样例_零售业_标准表数据.xlsx</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>X公司样例_零售业_标准表数据.xlsx</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>计划值</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>营收_X公司样例_零售业_月报2024-12-31.xlsx</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>X公司样例_零售业_月报2024-12-31.xlsx</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>营收</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>营收_X公司样例_零售业_月报2024-11-30.xlsx</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>X公司样例_零售业_月报2024-11-30.xlsx</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>营收</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1177,48 +1324,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="41.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="42.2916666666667" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="1" max="1" width="16.1041666666667" customWidth="1"/>
+    <col min="2" max="2" width="37.4513888888889" customWidth="1"/>
+    <col min="3" max="3" width="31.2430555555556" customWidth="1"/>
+    <col min="4" max="4" width="12.0555555555556" customWidth="1"/>
     <col min="5" max="5" width="11.2847222222222" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:8">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="str">
         <f>"ALL_DT_"&amp;D2</f>
         <v>ALL_DT_核心指标</v>
@@ -1227,11 +1377,11 @@
         <f>D2&amp;"_"&amp;C2</f>
         <v>核心指标_X公司样例_零售业_标准表数据.xlsx</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
+      <c r="C2" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -1240,7 +1390,91 @@
         <v>-1</v>
       </c>
       <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="str">
+        <f>"ALL_DT_"&amp;D3</f>
+        <v>ALL_DT_计划值</v>
+      </c>
+      <c r="B3" t="str">
+        <f>D3&amp;"_"&amp;C3</f>
+        <v>计划值_X公司样例_零售业_标准表数据.xlsx</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="str">
+        <f>"ALL_DT_"&amp;D4</f>
+        <v>ALL_DT_营收</v>
+      </c>
+      <c r="B4" t="str">
+        <f>D4&amp;"_"&amp;C4</f>
+        <v>营收_X公司样例_零售业_月报2024-12-31.xlsx</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
         <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="str">
+        <f>"ALL_DT_"&amp;D5</f>
+        <v>ALL_DT_营收</v>
+      </c>
+      <c r="B5" t="str">
+        <f>D5&amp;"_"&amp;C5</f>
+        <v>营收_X公司样例_零售业_月报2024-11-30.xlsx</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1260,46 +1494,146 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A646" sqref="$A2:$XFD646"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7083333333333" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.7083333333333" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="37.1388888888889" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.5694444444444" style="2" customWidth="1"/>
-    <col min="4" max="5" width="10.7083333333333" style="2"/>
-    <col min="6" max="6" width="20.2847222222222" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.4236111111111" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.7083333333333" style="2"/>
+    <col min="1" max="1" width="37.1388888888889" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.6597222222222" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.5694444444444" style="4" customWidth="1"/>
+    <col min="4" max="5" width="10.7083333333333" style="4"/>
+    <col min="6" max="6" width="31.2430555555556" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.4236111111111" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.7083333333333" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A2,[1]multi_sheet_df!B:B,[1]multi_sheet_df!C:C)</f>
+        <v>X公司样例_零售业_月报2024-12-31.xlsx</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A2,[1]multi_sheet_df!B:B,[1]multi_sheet_df!D:D)</f>
+        <v>营收</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A3,[1]multi_sheet_df!B:B,[1]multi_sheet_df!C:C)</f>
+        <v>X公司样例_零售业_月报2024-12-31.xlsx</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A3,[1]multi_sheet_df!B:B,[1]multi_sheet_df!D:D)</f>
+        <v>营收</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A4,[1]multi_sheet_df!B:B,[1]multi_sheet_df!C:C)</f>
+        <v>X公司样例_零售业_月报2024-11-30.xlsx</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A4,[1]multi_sheet_df!B:B,[1]multi_sheet_df!D:D)</f>
+        <v>营收</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A5,[1]multi_sheet_df!B:B,[1]multi_sheet_df!C:C)</f>
+        <v>X公司样例_零售业_月报2024-11-30.xlsx</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f>_xlfn.XLOOKUP(A5,[1]multi_sheet_df!B:B,[1]multi_sheet_df!D:D)</f>
+        <v>营收</v>
       </c>
     </row>
   </sheetData>
@@ -1317,65 +1651,65 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="20.4" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="20.4" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" ht="20.4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="20.4" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="20.4" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="20.4" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1389,20 +1723,20 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>14</v>
+      <c r="A1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1416,26 +1750,26 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1447,10 +1781,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6"/>
@@ -1460,54 +1794,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>28</v>
+      <c r="A1" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>29</v>
+      <c r="A2" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>30</v>
+      <c r="A3" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>31</v>
+      <c r="A4" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>32</v>
+      <c r="A5" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>33</v>
+      <c r="A6" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>34</v>
+      <c r="A7" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>35</v>
+      <c r="A8" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>36</v>
+      <c r="A9" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1518,46 +1879,94 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="26.3888888888889" customWidth="1"/>
+    <col min="1" max="1" width="29.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>28</v>
+      <c r="A1" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:1">
-      <c r="A2" t="s">
-        <v>38</v>
+      <c r="A2" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>39</v>
+      <c r="A3" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>40</v>
+      <c r="A4" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>41</v>
+      <c r="A5" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
